--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC5_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3195704746264468</v>
+        <v>0.2714935515495237</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.31957047462644683, 'ngram_match_score': 0.054681273910912126, 'weighted_ngram_match_score': 0.1196218447540263, 'syntax_match_score': 0.5655172413793104, 'dataflow_match_score': 0.5384615384615384}</t>
+          <t>{'codebleu': 0.2714935515495237, 'ngram_match_score': 0.054681273910912126, 'weighted_ngram_match_score': 0.1196218447540263, 'syntax_match_score': 0.5655172413793104, 'dataflow_match_score': 0.34615384615384615}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC5_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC5_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2714935515495237</v>
+        <v>0.2875191925751648</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2714935515495237, 'ngram_match_score': 0.054681273910912126, 'weighted_ngram_match_score': 0.1196218447540263, 'syntax_match_score': 0.5655172413793104, 'dataflow_match_score': 0.34615384615384615}</t>
+          <t>{'codebleu': 0.2875191925751648, 'ngram_match_score': 0.054681273910912126, 'weighted_ngram_match_score': 0.1196218447540263, 'syntax_match_score': 0.5655172413793104, 'dataflow_match_score': 0.41025641025641024}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
